--- a/Test Case Яндекс Маркета - копия.xlsx
+++ b/Test Case Яндекс Маркета - копия.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lord_\Documents\GitHub\QATESTERRomanenko\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404B6C22-4691-423B-951B-DE3D9DA40D6F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23895" windowHeight="9975"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23895" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,8 +19,91 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Александр Кобченко</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{668AD358-CFAA-4254-ADDE-26C636F8F1B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Александр Кобченко:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не надо в заголовке теста указывать тестовые данные</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4C0D0349-58A9-4E1D-AA01-9CE5C3A9AFBC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Александр Кобченко:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Аналогично</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{A0FC251E-51C9-4B17-BFA3-5401F7569893}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Александр Кобченко:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Предусловие:
+открыт браузер, открыт яндекс маркет, этого достаточно</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Наименование теста</t>
   </si>
@@ -74,13 +163,19 @@
   </si>
   <si>
     <t>Открывается страница товара на сайте Ozon.ru</t>
+  </si>
+  <si>
+    <t>Учитывая комментарий к предусловию, дальше должен быть шаг - открыть товар, тест дата - самсунг бла-бла-бла, результат - товар открыт, а этот шаг был бы следующим</t>
+  </si>
+  <si>
+    <t>аналогично с предыдущим тестом</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +233,40 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -319,7 +441,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -333,7 +455,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -390,19 +511,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -412,6 +537,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -458,7 +591,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,9 +623,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,6 +675,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -699,34 +868,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="65.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="35.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="36" t="s">
         <v>11</v>
@@ -734,7 +904,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -744,106 +914,110 @@
       <c r="C3" s="3"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" s="16" customFormat="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
+    <row r="4" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="6"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" ht="90">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:4" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="40" t="s">
+        <v>21</v>
+      </c>
       <c r="C13" s="7"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="30">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -852,620 +1026,620 @@
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="26"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="28"/>
-      <c r="B25" s="31"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="4"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="32"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="4"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A27" s="19"/>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="33"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="4"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="33"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="4"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="35"/>
-      <c r="B38" s="31"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="4"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="26"/>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="4"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="13.5" customHeight="1">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -1474,5 +1648,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>